--- a/eye-tracker/RSL/V2/Grafico.xlsx
+++ b/eye-tracker/RSL/V2/Grafico.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBD-NOTE\Desktop\Revisita RSL\V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doctorate-degree\eye-tracker\RSL\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEDBF5F0-A752-469E-8796-7BD6D4A135D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5955F6-5EF4-434E-971F-0D45EB8128B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-15" windowWidth="21840" windowHeight="13140" xr2:uid="{0991FC57-4134-474E-BAFD-051C7DED0299}"/>
+    <workbookView xWindow="20370" yWindow="-15" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{0991FC57-4134-474E-BAFD-051C7DED0299}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos" sheetId="1" r:id="rId1"/>
+    <sheet name="Segunda CIE" sheetId="2" r:id="rId2"/>
+    <sheet name="Criterios de qualidade" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha5" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Criterios de qualidade'!$C$1:$V$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Graficos!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Segunda CIE'!$A$1:$K$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="103">
   <si>
     <t>ACM Digital Library</t>
   </si>
@@ -63,13 +68,295 @@
   </si>
   <si>
     <t xml:space="preserve">Qty studies </t>
+  </si>
+  <si>
+    <t>Eye-tracking the factors of process model comprehension tasks</t>
+  </si>
+  <si>
+    <t>Petrusel, Razvan and Mendling, Jan</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Investigating the Process of Process Modeling with Eye Movement Analysis</t>
+  </si>
+  <si>
+    <t>Pinggera, Jakob ; Furtner, Marco ; Martini, Markus ; Sachse, Pierre ; Reiter, Katharina ; Zugal, Stefan ; Weber, Barbara</t>
+  </si>
+  <si>
+    <t>Investigating the Process of Process Modeling: Towards an in-Depth Understanding of How Process Models Are Created</t>
+  </si>
+  <si>
+    <t>Weber, Barbara</t>
+  </si>
+  <si>
+    <t>Evaluating a graphical notation for modeling collaborative learning activities: A family of experiments</t>
+  </si>
+  <si>
+    <t>Ana I. Molina and Miguel A. Redondo and Manuel Ortega and Carmen Lacave</t>
+  </si>
+  <si>
+    <t>Measuring cognitive load during process model creation</t>
+  </si>
+  <si>
+    <t>Weber, B. and Neurauter, M. and Pinggera, J. and Zugal, S. and Furtner, M. and Martini, M. and Sachse, P.</t>
+  </si>
+  <si>
+    <t>Task-specific visual cues for improving process model understanding</t>
+  </si>
+  <si>
+    <t>Razvan Petrusel and Jan Mendling and Hajo A. Reijers</t>
+  </si>
+  <si>
+    <t>How visual cognition influences process model comprehension</t>
+  </si>
+  <si>
+    <t>Eye tracking experiments on process model comprehension: Lessons learned</t>
+  </si>
+  <si>
+    <t>Zimoch, Michael and Pryss, Rudiger and Schobel, Johannes and Reichert, Manfred</t>
+  </si>
+  <si>
+    <t>Eye tracking meets the process of process modeling: A visual analytic approach</t>
+  </si>
+  <si>
+    <t>Burattin, Andrea and Kaiser, Michael and Neurauter, Manuel and Weber, Barbara</t>
+  </si>
+  <si>
+    <t>Cognitive insights into business process model comprehension: Preliminary results for experienced and inexperienced individuals</t>
+  </si>
+  <si>
+    <t>Zimoch, Michael and Pryss, Rudiger and Probst, Thomas and Schlee, Winfried and Reichert, Manfred</t>
+  </si>
+  <si>
+    <t>Measuring and explaining cognitive load during design activities: A fine-grained approach</t>
+  </si>
+  <si>
+    <t>Weber, B. and Neurauter, M. and Burattin, A. and Pinggera, J. and Davis, C.</t>
+  </si>
+  <si>
+    <t>The Business Process Model Quality Metrics</t>
+  </si>
+  <si>
+    <t>Pavlicek, Josef ; Hronza, Radek ; Pavlickova, Petra ; Jelinkova, Klara</t>
+  </si>
+  <si>
+    <t>Utilizing the Capabilities Offered by Eye-Tracking to Foster Novices Comprehension of Business Process Models</t>
+  </si>
+  <si>
+    <t>Zimoch, Michael and Pryss, Rudiger and Layher, Georg and Neumann, Heiko and Probst, Thomas and Schlee, Winfried and Reichert, Manfred</t>
+  </si>
+  <si>
+    <t>Real-time business process model tailoring: The effect of domain knowledge on reading strategy</t>
+  </si>
+  <si>
+    <t>Vermeulen, Sven</t>
+  </si>
+  <si>
+    <t>Business Process and Rule Integration Approaches - An Empirical Analysis</t>
+  </si>
+  <si>
+    <t>Chen, Tianwa ; Wang, Wei ; Indulska, Marta ; Sadiq, Shazia</t>
+  </si>
+  <si>
+    <t>Using Insights from Cognitive Neuroscience to Investigate the Effects ofEvent-Driven Process Chains on Process Model Comprehension</t>
+  </si>
+  <si>
+    <t>Zimoch, Michael and Mohring, Tim and Pryss, Ruediger and Probst, Thomasand Schlee, Winfried and Reichert, Manfred</t>
+  </si>
+  <si>
+    <t>Comprehension of business process models: Insight into cognitive strategies via eye tracking</t>
+  </si>
+  <si>
+    <t>Miles Tallon and Michael Winter and RÃ¼diger Pryss and Katrin Rakoczy and Manfred Reichert and Mark W. Greenlee and Ulrich Frick</t>
+  </si>
+  <si>
+    <t>Evaluating the Understandability of Hybrid Process Model Representations Using Eye Tracking: First Insights</t>
+  </si>
+  <si>
+    <t>Abbad Andaloussi, Amine and Slaats, Tijs and Burattin, Andrea and Hildebrandt, Thomas T. and Weber, Barbara</t>
+  </si>
+  <si>
+    <t>Understanding Process Models Using the Eye-Tracking: A Systematic Mapping</t>
+  </si>
+  <si>
+    <t>Brito, Vinicius and Duarte, Rafael and Lopes, Charlie Silva and da Silveira, Denis Silva</t>
+  </si>
+  <si>
+    <t>Exploring the Understandability of a Hybrid Process Design Artifact Based on DCR Graphs</t>
+  </si>
+  <si>
+    <t>Abbad Andaloussi, Amine and Burattin, Andrea and Slaats, Tijs and Petersen, Anette Chelina Moller and Hildebrandt, Thomas T. and Weber, Barbara</t>
+  </si>
+  <si>
+    <t>The effect of rule linking on business process model understanding</t>
+  </si>
+  <si>
+    <t>Wang, Wei</t>
+  </si>
+  <si>
+    <t>An Empirical Review of the Connection Between Model Viewer Characteristics and the Comprehension of Conceptual Process Models</t>
+  </si>
+  <si>
+    <t>Mendling, Jan ; Recker, Jan ; Reijers, Hajo A. ; Leopold, Henrik</t>
+  </si>
+  <si>
+    <t>Attentional Characteristics of Anomaly Detection in Conceptual Modeling</t>
+  </si>
+  <si>
+    <t>Boutin, Karl-David ; LÃ©ger, Pierre-Majorique ; Davis, Christopher J. ; Hevner, Alan R. ; LabontÃ©-LeMoyne, Ã‰lise</t>
+  </si>
+  <si>
+    <t>Advanced Statistical Methods for Eye Movement Analysis and Modelling: AÂ Gentle Introduction</t>
+  </si>
+  <si>
+    <t>Boccignone, Giuseppe</t>
+  </si>
+  <si>
+    <t>USING EYE TRACKING TO EXPOSE COGNITIVE PROCESSES IN UNDERSTANDINGCONCEPTUAL MODELS</t>
+  </si>
+  <si>
+    <t>Bera, Palash and Soffer, Pnina and Parsons, Jeffrey</t>
+  </si>
+  <si>
+    <t>Comprehension of business process models: Insight into cognitivestrategies via eye tracking</t>
+  </si>
+  <si>
+    <t>Tallon, Miles and Winter, Michael and Pryss, Ruediger and Rakoczy,Katrin and Reichert, Manfred and Greenlee, Mark W. and Frick, Ulrich</t>
+  </si>
+  <si>
+    <t>Learning process modeling phases from modeling interactions and eyetracking data</t>
+  </si>
+  <si>
+    <t>Burattin, Andrea and Kaiser, Michael and Neurauter, Manuel and Weber,Barbara</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Anor</t>
+  </si>
+  <si>
+    <t>Nossa autoria</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>REJEITADO</t>
+  </si>
+  <si>
+    <t>ACEITO</t>
+  </si>
+  <si>
+    <t>Duplicado</t>
+  </si>
+  <si>
+    <t>10.1109/EDOC.2014.32</t>
+  </si>
+  <si>
+    <t>Sem acesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial selection </t>
+  </si>
+  <si>
+    <t>Final selection</t>
+  </si>
+  <si>
+    <t>Duplicated</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCQ1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCQ2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCQ3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCQ4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCQ5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCQ6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQC1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQC2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQC3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQC4 </t>
+  </si>
+  <si>
+    <t>QC3</t>
+  </si>
+  <si>
+    <t>CQ4</t>
+  </si>
+  <si>
+    <t>Não fala de process models</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>QC1</t>
+  </si>
+  <si>
+    <t>QC1 score</t>
+  </si>
+  <si>
+    <t>Qty ref</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +364,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="3"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -94,20 +462,1265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="52">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="3"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,7 +1754,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -154,15 +1767,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="1600" b="1"/>
               <a:t>Qty studies per </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>digital libraries </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="1600" b="1"/>
               <a:t>  </a:t>
             </a:r>
           </a:p>
@@ -172,8 +1785,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47531247322865994"/>
-          <c:y val="4.2206228636306783E-2"/>
+          <c:x val="0.38438558432314768"/>
+          <c:y val="2.3021579256167338E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -189,7 +1802,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -231,20 +1844,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -259,20 +1864,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -287,20 +1884,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -315,20 +1904,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -343,21 +1924,18 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E287-470A-9F99-8958A096FEC1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -366,20 +1944,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -396,20 +1966,12 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -422,8 +1984,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1913570325887598E-2"/>
-                  <c:y val="-5.9470298235193599E-2"/>
+                  <c:x val="-0.13942242292137749"/>
+                  <c:y val="4.9466183354491836E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -446,8 +2008,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0321450069117012E-3"/>
-                  <c:y val="7.3473883800844603E-2"/>
+                  <c:x val="3.1977231492255169E-2"/>
+                  <c:y val="1.2518361371119302E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -470,8 +2032,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.925987548063668E-3"/>
-                  <c:y val="-3.4931772135913121E-2"/>
+                  <c:x val="1.9440529296702858E-2"/>
+                  <c:y val="1.1747652070824288E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -491,11 +2053,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6665198609855745E-2"/>
-                  <c:y val="2.9254324401242562E-2"/>
+                  <c:x val="-2.7313494335400482E-2"/>
+                  <c:y val="6.8669262082854718E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -509,14 +2071,41 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D866-4716-971B-622F79D63DED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0912710433533389E-2"/>
+                  <c:y val="-1.6788834111092183E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E287-470A-9F99-8958A096FEC1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.4376242171163345E-2"/>
-                  <c:y val="-2.0190710520861719E-2"/>
+                  <c:x val="-7.6550663904543362E-2"/>
+                  <c:y val="-0.11611395742155896"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -539,8 +2128,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8189271863012068E-2"/>
-                  <c:y val="-6.0383306273410563E-2"/>
+                  <c:x val="-4.8686374323016847E-2"/>
+                  <c:y val="-0.12318115928455457"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -559,6 +2148,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -573,9 +2163,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -619,13 +2212,13 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Springer Link</c:v>
+                  <c:v>Science Direct </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Science Direct </c:v>
+                  <c:v>Web of Science </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ACM Digital Library</c:v>
+                  <c:v>Springer Link</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Scopus</c:v>
@@ -637,7 +2230,7 @@
                   <c:v>Engineering Village</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Web of Science </c:v>
+                  <c:v>ACM Digital Library</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,13 +2242,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>713</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>502</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27</c:v>
@@ -667,7 +2260,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +2281,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
+        <c:firstSliceAng val="293"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -699,15 +2292,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71090938923079594"/>
-          <c:y val="0.11720310168951803"/>
-          <c:w val="0.26431979074913114"/>
-          <c:h val="0.75115850102070569"/>
+          <c:x val="0.74183775018781595"/>
+          <c:y val="3.740976417080924E-2"/>
+          <c:w val="0.23433338098168943"/>
+          <c:h val="0.73621137314354523"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -723,7 +2316,960 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31824003342865725"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graficos!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initial selection </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A907-45E8-923B-23D1B22034E7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A907-45E8-923B-23D1B22034E7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A907-45E8-923B-23D1B22034E7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2989644951097529E-4"/>
+                  <c:y val="-1.1135535141440653E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{566C2AEB-2765-4FF9-8C83-C719358CD5BC}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{CFCF196C-2EBC-48E3-9073-F05660FEDE54}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PORCENTAGEM]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A907-45E8-923B-23D1B22034E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7720844595918044E-2"/>
+                  <c:y val="-4.5007655293088367E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F1A78815-340C-4915-9225-0A0AA2599809}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{CB9AB635-3A6F-4F1C-AF5B-7A6C4BC31C47}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PORCENTAGEM]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A907-45E8-923B-23D1B22034E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0888862772750458E-2"/>
+                  <c:y val="-0.12706802274715662"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{47623659-35ED-482A-88D3-AEE4FFB4A30B}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{079355DC-3BB4-4B9C-82A6-52DB2517B611}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PORCENTAGEM]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A907-45E8-923B-23D1B22034E7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graficos!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rejected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duplicated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Accepted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficos!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A907-45E8-923B-23D1B22034E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="240"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.687574395921558"/>
+          <c:y val="0.2135411198600175"/>
+          <c:w val="0.30817196588496237"/>
+          <c:h val="0.58738480606590837"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33905806399400601"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graficos!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9346-469B-8979-E39B1BB190DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9346-469B-8979-E39B1BB190DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9346-469B-8979-E39B1BB190DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10760527678756519"/>
+                  <c:y val="-8.5063429571303584E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{98D5D1CF-1C49-43C7-A8AA-C66F384D3BE5}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{03F17FD3-DBCF-42A0-99F0-874CF8724816}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PORCENTAGEM]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9346-469B-8979-E39B1BB190DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1052578922776403E-2"/>
+                  <c:y val="-8.3835301837270379E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EEA01BB9-9A1E-424E-BD6C-1C1F3DFE8515}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{A89A9F3F-5F2A-4281-B892-B5950B54A91E}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PORCENTAGEM]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9346-469B-8979-E39B1BB190DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5304090709614088E-3"/>
+                  <c:y val="-0.12550196850393699"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C516C664-E813-48AC-82BF-240860F7DD5A}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{86D18F08-1E7F-4C4E-BEF5-DAA711064CBA}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PORCENTAGEM]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9346-469B-8979-E39B1BB190DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graficos!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Rejected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Duplicated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Accepted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficos!$C$21:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9346-469B-8979-E39B1BB190DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="174"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69023791974549897"/>
+          <c:y val="0.25983741615631373"/>
+          <c:w val="0.29919031293310971"/>
+          <c:h val="0.44849591717701953"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -823,8 +3369,85 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -835,7 +3458,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -847,6 +3470,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -877,9 +3511,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -911,7 +3548,7 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -919,24 +3556,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -944,10 +3573,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
+      <a:ln w="25400">
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
@@ -973,8 +3599,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -982,17 +3610,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1257,7 +3882,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1273,7 +3898,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1340,20 +3965,1058 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>119061</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1378,7 +5041,141 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95C6A72-FBAA-4503-8BD5-BEB27B7B8E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179510</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452ED1A3-0BBF-4BB0-AD19-9A487F39A911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD2C39E4-7394-4279-A245-F33A803213F3}" name="Tabela2" displayName="Tabela2" ref="A1:V24" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28" headerRowBorderDxfId="48" tableBorderDxfId="49" totalsRowBorderDxfId="47">
+  <autoFilter ref="A1:V24" xr:uid="{5D5F7A37-A1EC-4E6D-A141-E6053E58F6C4}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{96D68E5B-8C4E-4660-B3E0-6E7BA05DC365}" name="Coluna1" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{CA0693F8-8E85-4033-87C2-529290136FDF}" name="Coluna2" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{3439D1A7-7BD6-4F9D-9D8D-205A7B2A50E3}" name="Ref" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{84EB55D2-E5DB-439D-9F29-53785739670D}" name="Titulo" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{3D97A160-E67C-40F7-851A-F692CE50AC3B}" name="Autor" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{ECDABA38-427A-4F69-BBD3-73ADF2B44D0C}" name="Year" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{27786506-E255-4847-959B-626A32F011BD}" name="GCQ1 " dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{A32AE257-7334-48B4-BE2A-14A44E9FB8E7}" name="GCQ2 " dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{E918FE2C-2E85-4518-88FB-EEC3ECA8D716}" name="GCQ3 " dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{D1281D7D-4B41-4893-B755-499A2DECD2B8}" name="GCQ4 " dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{CCE1394C-7F96-4F84-9F2B-65136C03A709}" name="GCQ5 " dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{B2EBEED1-46D8-4BDD-AE56-58C0942DEA2F}" name="GCQ6 " dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{211E96D6-2C1E-44F0-90C5-E260C136AD0B}" name="EQC1 " dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{6CA9AFFC-4E07-4BF2-8F64-623D8B9DBAED}" name="EQC2 " dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{63184CCC-D4BB-4A6A-A66E-1F599AF43A3A}" name="EQC3 " dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{1F9FDA2D-3DDB-4A60-9413-AC1D127A7792}" name="EQC4 " dataDxfId="35"/>
+    <tableColumn id="21" xr3:uid="{381EEA7C-5FD9-4931-9F1C-21630402EFA1}" name="QC1 score" dataDxfId="34">
+      <calculatedColumnFormula>SUM(G2:L2)/6+(3*(SUM(M2:P2)/4))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{FFF7B704-28A2-4AFA-B0A5-097FC111D3B4}" name="QC1" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{D9480C43-3688-45FE-B890-1F8A7CF5C487}" name="Qty ref" dataDxfId="32"/>
+    <tableColumn id="24" xr3:uid="{C2E2E8C4-0D32-4651-AD53-25C2798B07B2}" name="QC3" dataDxfId="31"/>
+    <tableColumn id="25" xr3:uid="{894D254E-19A1-4C49-8E2C-AAC63539931C}" name="CQ4" dataDxfId="30"/>
+    <tableColumn id="26" xr3:uid="{975FB315-725E-4B81-BABE-A1D24A5CA5EE}" name="Status" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6406412F-2234-4A78-AEEA-D2A2206D1303}" name="Tabela26" displayName="Tabela26" ref="A1:R24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R24" xr:uid="{70173669-E304-4D63-BA22-F78E385AA23A}"/>
+  <tableColumns count="18">
+    <tableColumn id="3" xr3:uid="{785B06B8-118B-4664-BDD7-DD31688D15E0}" name="Ref" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{845C10B1-ECD1-44BD-B1FA-49F010D0681F}" name="Year" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{1BAD39BD-3398-4BC0-B5A0-A37BC8D5CD81}" name="GCQ1 " dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{C5EFC257-7A6A-4445-8811-BB16542A7E15}" name="GCQ2 " dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{3476A7DD-2489-4EAB-B0D3-12A4B8050122}" name="GCQ3 " dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{0F9D0675-B0B3-4AB2-86B1-18E9922F25B4}" name="GCQ4 " dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{CBB4AE2A-B1E4-46C9-B3C9-6CE0AF4F3E30}" name="GCQ5 " dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{1A38A433-FC65-477A-8974-6A90E00F562F}" name="GCQ6 " dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{DD4A5546-69E0-469D-84D6-99F9736E0549}" name="EQC1 " dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{034D8AAA-292A-4E44-A3BE-FFDCE63BB71C}" name="EQC2 " dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{320B1C24-3B38-4E26-88BB-CFAC2ADAAC93}" name="EQC3 " dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{284CC5F1-DF6A-49F9-8465-7497D3FF5436}" name="EQC4 " dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{2AEAB5A0-7F96-4609-A445-7A55AC9BEB13}" name="QC1 score" dataDxfId="5">
+      <calculatedColumnFormula>SUM(C2:H2)/6+(3*(SUM(I2:L2)/4))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{2918724B-5A7D-4D5C-9C37-8C64C849A159}" name="QC1" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{B8019790-DA6C-47BA-BC89-308ED9086166}" name="Qty ref" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{F8311EB8-D21D-477D-8462-8608F3B60A6D}" name="QC3" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{8A009B8C-C0AD-42CB-A95F-04E8144E8EE2}" name="CQ4" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{8CC97598-9FF4-44E6-9C1E-B6361C0FCF6E}" name="Status" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1678,16 +5475,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BC57A7-F30E-4084-95F4-0A763404509C}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,26 +5498,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>713</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>502</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>180</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,10 +5546,73 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1362</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="1">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1">
+        <f>SUM(B21:B23)</f>
+        <v>1477</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUM(C21:C23)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <f>24/1477</f>
+        <v>1.6249153689911984E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1763,4 +5624,2967 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD047306-0E24-42E2-BD5E-D2612C1484B5}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="130.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14569</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15414</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>15248</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15393</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15311</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15254</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15367</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14768</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>15247</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15293</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2">
+        <v>26</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14784</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15249</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15253</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15250</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14778</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15318</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15252</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15294</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>15281</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>15284</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15255</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>14793</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15325</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15256</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15292</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>15296</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2">
+        <v>15245</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K28" xr:uid="{6BB2C00C-5DB1-476C-9811-82120F77000F}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="ACEITO"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
+      <sortCondition ref="E1:E28"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" display="https://doi.org/10.1109/EDOC.2014.32" xr:uid="{D40DBCF1-E901-43C2-9AEA-8161A3D6EBDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185CD82-0275-469D-AA10-D7D576832F19}">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="13" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24" style="41" customWidth="1"/>
+    <col min="5" max="5" width="21" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="14" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="16" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="46.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11">
+        <v>15367</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>14784</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15">
+        <f>SUM(G3:L3)/6+(3*(SUM(M3:P3)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+    </row>
+    <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>15252</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15">
+        <f>SUM(G4:L4)/6+(3*(SUM(M4:P4)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+    </row>
+    <row r="5" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11">
+        <v>15393</v>
+      </c>
+      <c r="C5" s="12">
+        <v>31</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>SUM(G5:L5)/6+(3*(SUM(M5:P5)/4))</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>15247</v>
+      </c>
+      <c r="C6" s="12">
+        <v>30</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>SUM(G6:L6)/6+(3*(SUM(M6:P6)/4))</f>
+        <v>3</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="44">
+        <v>5</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>15294</v>
+      </c>
+      <c r="C7" s="12">
+        <v>46</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>SUM(G7:L7)/6+(3*(SUM(M7:P7)/4))</f>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="31">
+        <v>4</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <v>15256</v>
+      </c>
+      <c r="C8" s="12">
+        <v>29</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="15">
+        <v>1</v>
+      </c>
+      <c r="O8" s="15">
+        <v>1</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>SUM(G8:L8)/6+(3*(SUM(M8:P8)/4))</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" s="32">
+        <v>1</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>15292</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
+        <f>SUM(G9:L9)/6+(3*(SUM(M9:P9)/4))</f>
+        <v>3.25</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="33">
+        <v>1</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11">
+        <v>15311</v>
+      </c>
+      <c r="C10" s="12">
+        <v>47</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <f>SUM(G10:L10)/6+(3*(SUM(M10:P10)/4))</f>
+        <v>3.25</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="30">
+        <v>3</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11">
+        <v>15255</v>
+      </c>
+      <c r="C11" s="12">
+        <v>33</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <f>SUM(G11:L11)/6+(3*(SUM(M11:P11)/4))</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="33">
+        <v>1</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11">
+        <v>15296</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2018</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15">
+        <f>SUM(G12:L12)/6+(3*(SUM(M12:P12)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11">
+        <v>15245</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2018</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15">
+        <f>SUM(G13:L13)/6+(3*(SUM(M13:P13)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11">
+        <v>15254</v>
+      </c>
+      <c r="C14" s="12">
+        <v>40</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2017</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15">
+        <f>SUM(G14:L14)/6+(3*(SUM(M14:P14)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11">
+        <v>15249</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2017</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15">
+        <f>SUM(G15:L15)/6+(3*(SUM(M15:P15)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15253</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15">
+        <f>SUM(G16:L16)/6+(3*(SUM(M16:P16)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11">
+        <v>14778</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2017</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15">
+        <f>SUM(G17:L17)/6+(3*(SUM(M17:P17)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11">
+        <v>15281</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2017</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15">
+        <f>SUM(G18:L18)/6+(3*(SUM(M18:P18)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+    </row>
+    <row r="19" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11">
+        <v>15325</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2017</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15">
+        <f>SUM(G19:L19)/6+(3*(SUM(M19:P19)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>14793</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2016</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15">
+        <f>SUM(G20:L20)/6+(3*(SUM(M20:P20)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="11">
+        <v>15284</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2015</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15">
+        <f>SUM(G21:L21)/6+(3*(SUM(M21:P21)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11">
+        <v>14768</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2014</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15">
+        <f>SUM(G22:L22)/6+(3*(SUM(M22:P22)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+    </row>
+    <row r="23" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11">
+        <v>15250</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2013</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15">
+        <f>SUM(G23:L23)/6+(3*(SUM(M23:P23)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="23"/>
+    </row>
+    <row r="24" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26">
+        <v>15318</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="27">
+        <v>2013</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28">
+        <f>SUM(G24:L24)/6+(3*(SUM(M24:P24)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5720F1-F85D-45C6-8939-AE6E5FF8EB6E}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15">
+        <f>SUM(C3:H3)/6+(3*(SUM(I3:L3)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15">
+        <f>SUM(C4:H4)/6+(3*(SUM(I4:L4)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>31</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <f>SUM(C5:H5)/6+(3*(SUM(I5:L5)/4))</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="31">
+        <v>2</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <f>SUM(C6:H6)/6+(3*(SUM(I6:L6)/4))</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="44">
+        <v>5</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>46</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <f>SUM(C7:H7)/6+(3*(SUM(I7:L7)/4))</f>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="31">
+        <v>4</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>29</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <f>SUM(C8:H8)/6+(3*(SUM(I8:L8)/4))</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="32">
+        <v>1</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <f>SUM(C9:H9)/6+(3*(SUM(I9:L9)/4))</f>
+        <v>3.25</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="33">
+        <v>1</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <f>SUM(C10:H10)/6+(3*(SUM(I10:L10)/4))</f>
+        <v>3.25</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="30">
+        <v>3</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <f>SUM(C11:H11)/6+(3*(SUM(I11:L11)/4))</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="33">
+        <v>1</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15">
+        <f>SUM(C12:H12)/6+(3*(SUM(I12:L12)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15">
+        <f>SUM(C13:H13)/6+(3*(SUM(I13:L13)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15">
+        <f>SUM(C14:H14)/6+(3*(SUM(I14:L14)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
+        <f>SUM(C15:H15)/6+(3*(SUM(I15:L15)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
+        <f>SUM(C16:H16)/6+(3*(SUM(I16:L16)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15">
+        <f>SUM(C17:H17)/6+(3*(SUM(I17:L17)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15">
+        <f>SUM(C18:H18)/6+(3*(SUM(I18:L18)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12">
+        <v>2017</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
+        <f>SUM(C19:H19)/6+(3*(SUM(I19:L19)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
+        <f>SUM(C20:H20)/6+(3*(SUM(I20:L20)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15">
+        <f>SUM(C21:H21)/6+(3*(SUM(I21:L21)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="23"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12">
+        <v>2014</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15">
+        <f>SUM(C22:H22)/6+(3*(SUM(I22:L22)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15">
+        <f>SUM(C23:H23)/6+(3*(SUM(I23:L23)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="23"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27">
+        <v>2013</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28">
+        <f>SUM(C24:H24)/6+(3*(SUM(I24:L24)/4))</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/eye-tracker/RSL/V2/Grafico.xlsx
+++ b/eye-tracker/RSL/V2/Grafico.xlsx
@@ -1,27 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doctorate-degree\eye-tracker\RSL\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5955F6-5EF4-434E-971F-0D45EB8128B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2480458C-01BE-4CB0-81AF-AD33ED712096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-15" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{0991FC57-4134-474E-BAFD-051C7DED0299}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0991FC57-4134-474E-BAFD-051C7DED0299}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos" sheetId="1" r:id="rId1"/>
     <sheet name="Segunda CIE" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterios de qualidade" sheetId="4" r:id="rId3"/>
-    <sheet name="Planilha5" sheetId="7" r:id="rId4"/>
+    <sheet name="Criterios de qualidade-OLD" sheetId="10" r:id="rId3"/>
+    <sheet name="Criterios de qualidade - NEW" sheetId="4" r:id="rId4"/>
+    <sheet name="Referencia" sheetId="8" r:id="rId5"/>
+    <sheet name="Planilha5" sheetId="7" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="11" r:id="rId7"/>
+    <sheet name="Planilha2" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Criterios de qualidade'!$C$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Criterios de qualidade - NEW'!$D$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Criterios de qualidade-OLD'!$D$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Graficos!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Segunda CIE'!$A$1:$K$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Planilha1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Segunda CIE'!$A$1:$K$30</definedName>
+    <definedName name="_Ref32737256" localSheetId="4">Referencia!$C$13</definedName>
+    <definedName name="_Ref32737270" localSheetId="4">Referencia!$C$14</definedName>
+    <definedName name="_Ref32738367" localSheetId="4">Referencia!$C$17</definedName>
+    <definedName name="_Ref32738403" localSheetId="4">Referencia!$C$19</definedName>
+    <definedName name="_Ref32738470" localSheetId="4">Referencia!$C$45</definedName>
+    <definedName name="_Ref32738613" localSheetId="4">Referencia!$C$46</definedName>
+    <definedName name="_Ref32742498" localSheetId="4">Referencia!$C$15</definedName>
+    <definedName name="_Ref32760874" localSheetId="4">Referencia!$C$22</definedName>
+    <definedName name="_Ref32760885" localSheetId="4">Referencia!$C$23</definedName>
+    <definedName name="_Ref32771464" localSheetId="4">Referencia!$C$48</definedName>
+    <definedName name="_Ref32779180" localSheetId="4">Referencia!$C$25</definedName>
+    <definedName name="_Ref33043846" localSheetId="4">Referencia!$C$58</definedName>
+    <definedName name="_Ref33043857" localSheetId="4">Referencia!$C$57</definedName>
+    <definedName name="_Ref33043914" localSheetId="4">Referencia!$C$56</definedName>
+    <definedName name="_Ref33044093" localSheetId="4">Referencia!$C$55</definedName>
+    <definedName name="_Ref33044174" localSheetId="4">Referencia!$C$54</definedName>
+    <definedName name="_Ref33044363" localSheetId="4">Referencia!$C$53</definedName>
+    <definedName name="_Ref33044377" localSheetId="4">Referencia!$C$52</definedName>
+    <definedName name="_Ref33044397" localSheetId="4">Referencia!$C$51</definedName>
+    <definedName name="_Ref33044440" localSheetId="4">Referencia!$C$50</definedName>
+    <definedName name="_Ref33046534" localSheetId="4">Referencia!$C$44</definedName>
+    <definedName name="_Ref33046639" localSheetId="4">Referencia!$C$43</definedName>
+    <definedName name="_Ref33046697" localSheetId="4">Referencia!$C$42</definedName>
+    <definedName name="_Ref8459901" localSheetId="4">Referencia!$C$1</definedName>
+    <definedName name="_Ref8461158" localSheetId="4">Referencia!$C$2</definedName>
+    <definedName name="_Ref8462856" localSheetId="4">Referencia!$C$3</definedName>
+    <definedName name="_Ref8462919" localSheetId="4">Referencia!$C$4</definedName>
+    <definedName name="_Ref8463148" localSheetId="4">Referencia!$C$5</definedName>
+    <definedName name="_Ref8463339" localSheetId="4">Referencia!$C$6</definedName>
+    <definedName name="_Ref8463438" localSheetId="4">Referencia!$C$7</definedName>
+    <definedName name="_Ref8463489" localSheetId="4">Referencia!$C$8</definedName>
+    <definedName name="_Ref8463588" localSheetId="4">Referencia!$C$9</definedName>
+    <definedName name="_Ref8463590" localSheetId="4">Referencia!$C$10</definedName>
+    <definedName name="_Ref8463739" localSheetId="4">Referencia!$C$11</definedName>
+    <definedName name="_Ref8463850" localSheetId="4">Referencia!$C$12</definedName>
+    <definedName name="_Ref8464805" localSheetId="4">Referencia!$C$16</definedName>
+    <definedName name="_Ref8465748" localSheetId="4">Referencia!$C$47</definedName>
+    <definedName name="_Ref8465944" localSheetId="4">Referencia!$C$18</definedName>
+    <definedName name="_Ref8466112" localSheetId="4">Referencia!$C$20</definedName>
+    <definedName name="_Ref8466149" localSheetId="4">Referencia!$C$21</definedName>
+    <definedName name="_Ref8497655" localSheetId="4">Referencia!$C$26</definedName>
+    <definedName name="_Ref8497667" localSheetId="4">Referencia!$C$27</definedName>
+    <definedName name="_Ref8497893" localSheetId="4">Referencia!$C$28</definedName>
+    <definedName name="_Ref8497919" localSheetId="4">Referencia!$C$29</definedName>
+    <definedName name="_Ref8497926" localSheetId="4">Referencia!$C$30</definedName>
+    <definedName name="_Ref8497929" localSheetId="4">Referencia!$C$31</definedName>
+    <definedName name="_Ref8497943" localSheetId="4">Referencia!$C$32</definedName>
+    <definedName name="_Ref8497951" localSheetId="4">Referencia!$C$33</definedName>
+    <definedName name="_Ref8497955" localSheetId="4">Referencia!$C$34</definedName>
+    <definedName name="_Ref8497960" localSheetId="4">Referencia!$C$35</definedName>
+    <definedName name="_Ref8497964" localSheetId="4">Referencia!$C$36</definedName>
+    <definedName name="_Ref8497973" localSheetId="4">Referencia!$C$37</definedName>
+    <definedName name="_Ref8497983" localSheetId="4">Referencia!$C$38</definedName>
+    <definedName name="_Ref8497988" localSheetId="4">Referencia!$C$39</definedName>
+    <definedName name="_Ref8497993" localSheetId="4">Referencia!$C$40</definedName>
+    <definedName name="_Ref8497997" localSheetId="4">Referencia!$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="206">
   <si>
     <t>ACM Digital Library</t>
   </si>
@@ -350,13 +412,326 @@
   </si>
   <si>
     <t>Coluna2</t>
+  </si>
+  <si>
+    <t>USING EYE TRACKING TO EXPOSE COGNITIVE PROCESSES IN UNDERSTANDING CONCEPTUAL MODELS</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t>Alotaibi, Y.; Liu, F.: Survey of business process management: challenges and solutions. Enterprise Information Systems, 11(8), 1119-1153 (2016).</t>
+  </si>
+  <si>
+    <t>Melcher, J.; Seese, D.: Towards validating prediction systems for process understandability: Measuring process understandability. Proceedingsofthe 2008 10th SYNASC 2008. Anais.Timisoara: IEEE, (2008).</t>
+  </si>
+  <si>
+    <t>Jiménez-ramírez, A.; Weber, B.; Barba, I.; Del Valle, C.: Generating optimized configurable business process models in scenarios subject to uncertainty. Informationand Software Technology, vol. 57, n. 1, pp. 571–594, (2015).</t>
+  </si>
+  <si>
+    <t>Unterkalmsteiner, M.; Gorschek, T.; Islam, A.K.M.M.; Cheng, C. K.; Permadi, R. B.; Feldt, R.: Evaluation and Measurement of Software Process Improvement: A Systematic Literature Review, IEEE Transactions on Software Engineering, vol. 38, p. 398-424 (2011).</t>
+  </si>
+  <si>
+    <t>Gibson, D.L.; Goldenson, D.R.; Kost, K.: Performance results of CMMI-based process improvement. Carnegie-Mellon Univ Pittsburgh Pa Software Engineering Inst (2006).</t>
+  </si>
+  <si>
+    <t>Mohd, N.; Ahmad, R.; Hassan, N.: Resistance factors in the implementation of software process improvement project. Journal of Computer Science, pp. 211-219 (2008).</t>
+  </si>
+  <si>
+    <t>Hani, S. U.: Impact of process improvement on software development predictions, for measuring software development project's performance benefits, In: Proceedings of the 7th International Conference on Frontiers of Information Technology, p 54, (2009).</t>
+  </si>
+  <si>
+    <t>Mendoza, V.; Silveira, D. S.; Albuquerque, M. L.; Araújo, J.: Verifying BPMN Understandability with Novice Business, 33rd Symposium on Applied Computing - ACM/SIGAPP, Pau – France, ACM, pp. 94-101 (2018).</t>
+  </si>
+  <si>
+    <t>Rodrigues, R. D. A.; Barros, M. D. O.; Revoredo, K.; Azevedo, L. G.; Leopold H.: An experiment on process model understandability using textual work instructions and BPMN models, In: 29th SBES, pp. 41-50, (2015).</t>
+  </si>
+  <si>
+    <t>Figl, K., Recker, J.; Exploring cognitive style and task-specific preferences for process representations. Requirements Eng., 21(1), pp. 63–85 (2014).</t>
+  </si>
+  <si>
+    <t>Mendling, J.; ReijersH.; Cardoso, E. J.; What Makes Process Models Understandable?, In: Business Process Management,Springer, Berlin, Heidelberg,  pp. 48–63, (2007).</t>
+  </si>
+  <si>
+    <t>Kitchenham, Barbara A.; DYBA, Tore; JORGENSEN, Magne. Evidence-based software engineering. In: Proceedings of the 26th international conference on software engineering. IEEE Computer Society, pp. 273-281 (2004).</t>
+  </si>
+  <si>
+    <t>Petersen, K.; Feldt, R.; Mujtaba, S.; Mattsson, M.: Systematic mapping studies in software engineering, in: EASE ’08: Proceedings of the 12th International Conference on Evaluation and Assessment in Software Engineering, vol. 8, pp. 68-77 (2008).</t>
+  </si>
+  <si>
+    <t>Ko, R. K. L.: A computer scientist’s introductory guide to business process management (BPM), XRDS: Crossroads, The ACM Magazine for Students, vol. 15, n. 4 (2009).</t>
+  </si>
+  <si>
+    <t>Wahl, T.; Sindre, G.: An analytical evaluation of BPMN usi¬ng a semiotic quality framework, Advanced topics in database research, vol. 5, pp. 94-105 (2006).</t>
+  </si>
+  <si>
+    <t>Indulska, M.; ZurMuehlen, M.; Recker, J.: Measuring Method Complexity: The Case of the Busi-ness Process ModelingNotation. Technical report, BPM Center Report, n. Apr (2009).</t>
+  </si>
+  <si>
+    <t>Laue, R.; Gadatsch, A. Measuring the understandability of business process models are we asking the right questions? In: SPRINGER. InternationalConferenceon Business Process Management, pp. 37–48 (2010).</t>
+  </si>
+  <si>
+    <t>Mendling, J.; Strembeck, M.; Recker, J: Factors of process model comprehension—findings from a series of experiments. DecisionSupport Systems, Elsevier, vol. 53, n. 1, pp. 195–206 (2012).</t>
+  </si>
+  <si>
+    <t>Sharafi, Z.; Shaffer, T.; Sharif B.: Eye-Tracking Metrics in Software Engineering, In: Asia-Pacific Software Engineering Conference – APSEC, pp. 96–103, (2015).</t>
+  </si>
+  <si>
+    <t>Moody, D.; The “physics” of notations: toward a scientific basis for constructing visual notations in software engineering, In: IEEE Transactions on Software Engineering, 35(6), pp. 756–779, (2009).</t>
+  </si>
+  <si>
+    <t>Santos, M.; Gralha, C.; Goulão, M., Araújo, J.; Moreira, A.; Cambeiro, J.: What is the Impact of Bad Layout in the Understandability of Social Goal Models?, in: 24th IEEE Requirements Engi-neering Conference - RE, Beijing – China, pp. 206-215, (2016).</t>
+  </si>
+  <si>
+    <t>Kitchenham, B.; Charters, S.: Guidelines for performing Systematic Literature Reviews in Software Engineering, in: Technical Report EBSE 2007-001, Keele University and Durham University Joint Report, (2007).</t>
+  </si>
+  <si>
+    <t>Budgen, D.; Turner, M.; Brereton, P.; Kitchenham, B.: Using mapping studies in software engi-neering, in: Proceedings of PPIG 2008, Lancaster University, pp. 195–204. (2008).</t>
+  </si>
+  <si>
+    <t>Kitchenham, B.; Brereton P.; Budgen D.: Using mapping studies as the basis for further research – A participant-observercase study, Information &amp; Software Technology Volume 53, Issue 6, pp. 638-651, (2011).</t>
+  </si>
+  <si>
+    <t>OMG BPMN2, Business Process Model and Notation (BPMN) v2.0, Object Management Group (2011).</t>
+  </si>
+  <si>
+    <t>Da Silva, F. Q., Suassuna, M., França, A. C. C., Grubb, A. M., Gouveia, T. B., Monteiro, C. V., dos Santos, I. E.: Replication of empirical studies in software engineering research: a systematic mapping study. Empirical Software Engineering, vol. 19(3), pp. 501-557, (2014).</t>
+  </si>
+  <si>
+    <t>Jamshidi, P., Ghafari, M., Ahmad, A., Pahl, C.: A Protocol for Systematic Literature Review on Architecture-Centric Software Evolution Research, Technical Report, Lero-TheIrish Software Engineering Research Centre, Dublin City University, Oct. 2012.</t>
+  </si>
+  <si>
+    <t>Wang, W.: The Effect of Rule Linking on Business Process Model Understanding. In: Integrating Business Process Models and Rules. Springer, Cham. p. 42-59 (2019).</t>
+  </si>
+  <si>
+    <t>AbbadAndaloussi, A.; Slaats, T.; Burattin, A.; Hildebrandt, T.: Evaluating the Understandability of Hybrid Process Model Representations Using Eye Tracking: First Insights. In: International Conference on Business Process Management, Springer, Cham, pp. 475-481 (2019).</t>
+  </si>
+  <si>
+    <t>Boutin, K.; Léger, P.; Davis, C.; Hevner, A.; Labonté-LeMoyne, É.: Attentional Characteristics of Anomaly Detection.In: Conceptual Modeling. Information Systems and Neuroscience. Springer, Cham, pp. 57-63 (2019).</t>
+  </si>
+  <si>
+    <t>Zimoch, M.; Pryss, R.; Layher, G.; Neumann, H.; Probst, T.; Schlee, W.; Reichert, M.: Utilizing the Capabilities Offered by Eye-Tracking to Foster Novices’ Comprehension of Business Process Models. In: ICCC - International Conference on Cognitive Computing. Lecture Notes in Computer Science, vol. 10971, pp. 155-163, Springer, Cham (2018).</t>
+  </si>
+  <si>
+    <t>Vermeulen, S.: Real-Time Business Process Model Tailoring: The Effect of Domain Knowledge on Reading Strategy. In: Debruyne C. et al. (eds) On the Move to Meaningful Internet Systems. OTM 2017 Workshops, vol: 10697, pp. 280-286, Springer (2018).</t>
+  </si>
+  <si>
+    <t>Zimoch, M.; Mohring, T.; Pryss, R.; Probst, T.; Schlee, W.; Reichert, M.: Using Insights from Cognitive Neuroscience to Investigate the Effects of Event-Driven Process Chains on Process Model Comprehension. In: Business Process Management Workshops. Vol: 308, pp. 446-459, Springer, Cham (2018).</t>
+  </si>
+  <si>
+    <t>Pavlicek, J.; Hronza, R.; Pavlickova, P.; Jelinkova, K.: The Business Process Model Quality Metrics. In: Enterprise and Organizational Modeling and Simulation. pp. 134-148 (2017).</t>
+  </si>
+  <si>
+    <t>Weber, B.; Neurauter, M.; Burattin, A.; Pinggera, J.; Davis, C.: Measuring and Explaining Cognitive Load During Design Activities: A Fine-Grained Approach. In: Information Systems and Neuroscience. Lecture Notes in Information Systems and Organisation 2017, vol 25, pp. 47-53. Springer, Cham (2018).</t>
+  </si>
+  <si>
+    <t>Petrusel, R.; Mendling, J.; Reijers, H. A.: How visual cognition influences process model comprehension. DecisionSupport Systems, vol 96, pp. 1-16. Elsevier (2017).</t>
+  </si>
+  <si>
+    <t>Burattin, A.; Kaiser, M.; Neurauter, M.; Weber, B.: Eye Tracking Meets the Process of Process Modeling: A Visual Analytic Approach. In: Dumas M., Fantinato M. (eds) Business Process Management Workshops 2016. BPM. vol 281, pp. 461-473. Springer, Cham (2017).</t>
+  </si>
+  <si>
+    <t>Zimoch, M.; Pryss, R.; Schobel, J.; Reichert, M.: Eye Tracking Experiments on Process Model Comprehension: Lessons Learned. In: Reinhartz-Berger I., Gulden J., Nurcan S., Guédria W., Bera P. (eds) Enterprise, Business-Process and Information Systems Modeling. BPMDS 2017, EMMSAD. vol 287, pp. 153-168. Springer, Cham (2017).</t>
+  </si>
+  <si>
+    <t>Zimoch, M.; Pryss, R.; Probst, T.; Schlee, W.; Reichert, M.: Cognitive Insights into Business Process Model Comprehension: Preliminary Results for Experienced and Inexperienced Individuals. In: Reinhartz-Berger I., Gulden J., Nurcan S., Guédria W., Bera P. (eds) BPMDS 2017, vol 287, pp. 137-152. Springer, Cham (2017).</t>
+  </si>
+  <si>
+    <t>Petrusel, R.; Mendling, J.; Reijers, H. A.: Task-specific visual cues for improving process model understanding. Informationand Software Technology, 79, pp. 63-78 (2016).</t>
+  </si>
+  <si>
+    <t>Weber, B.; Neurauter, M.; Pinggera, J.; Zugal, S.; Furtner, M.; Martini, M.; Sachse, P.: Measuring cognitive load during process model creation. In: Information Systems and Neuroscience, pp. 129-136. Springer, Cham (2015).</t>
+  </si>
+  <si>
+    <t>Petrusel, R.; Mendling, J.: Eye-tracking the factors of process model comprehension tasks. In: International Conference on Advanced Information Systems Engineering, pp. 224-239. Springer, Berlin, Heidelberg (2013).</t>
+  </si>
+  <si>
+    <t>Pinggera, J.; Furtner, M.; Martini, M.; Sachse, P.; Reiter, K.; Zugal, S.; Weber, B.: Investigating the process of process modeling with eye movement analysis. In: International Conference on Business Process Management. pp. 438-450. Springer, Berlin, (2012).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molina, A. I.; Redondo, M. A.; Ortega, M.; Lacave, C.: Evaluating a graphical notation for modeling collaborative learning activities: A family of experiments. In: Science of Computer Programming, v. 88, pp. 54-81, (2014). </t>
+  </si>
+  <si>
+    <t>Burattin, A.; Kaiser, M.; Neurauter, M.; Weber, B.: Learning process modeling phases from modeling interactions and eye tracking data. In: Data &amp; Knowledge Engineering, (2019).</t>
+  </si>
+  <si>
+    <t>Chen, T.; Wang, W.; Indulska, M.; Sadiq, S.: Business Process and Rule Integration Ap-proaches- An Empirical Analysis. In: International Conference on Business Process Man-agement. Springer, Cham, pp. 37-52 (2018).</t>
+  </si>
+  <si>
+    <t>Santos, M. C. D. F.: Avaliação da Eficácia Cognitiva de Modelos de Requisitos Orientados a Objetivos. Masters Dissertation, Faculdade de Ciência e Tecnologia Universidade nova de Lisboa, (2016).</t>
+  </si>
+  <si>
+    <t>Sharafi, Z.; Soh Z.; Guéhéneuc, Y. G.: A systematic literature review on the usage of eye-tracking in software engineering. In: Information and Software Technology 67, pp. 79–107 (2015).</t>
+  </si>
+  <si>
+    <t>Scheer, A. W.; Nüttgens, M.: ARIS Architecture and Reference Models for Business Process Management, In: Proceedings of the Business Process Management, Models, Techniques, and Empirical Studies, Springer-Verlag, pp 376–389 (2000).</t>
+  </si>
+  <si>
+    <t>Petri, C. A.: Kommunikation mit Automaten. PhD thesis, Institut fur InstrumentelleMathematik, (1962).</t>
+  </si>
+  <si>
+    <t>Sommer, M.: ZeitlicheDarstellung und Modellierung von Prozessenmithilfe von Gantt-Diagrammen. Bachelors Thesis, Ulm University (2012).</t>
+  </si>
+  <si>
+    <t>Lacaze, Xavier, and Philippe Palanque. "Comprehensive handling of temporal issues in tasks models: What is needed and how to support it. Workshop ‘The Temporal Aspects of Work for HCI (CHI 2004)’. Vienna, Austria. (2004).</t>
+  </si>
+  <si>
+    <t>Paternò, Fabio. ConcurTaskTrees: an engineered notation for task models. The handbook of task analysis for human-computer interaction, p. 483-503. (2004).</t>
+  </si>
+  <si>
+    <t>Dikici, A.; Turetken, O.; Demirors, O.: Factors influencing the understandability of process models: A systematic literature review. Informationand Software Technology, vol. 93, pp. 112-129 (2018).</t>
+  </si>
+  <si>
+    <t>FIGL, K.: Comprehension of procedural visual business process models. In: Business &amp;Information Systems Engineering, vol. 59, n. 1, pp. 41-67 (2017).</t>
+  </si>
+  <si>
+    <t>Vaknin, M.; Filipowska, A.: Information Quality Framework for the Design and Validation of Data Flow Within Business Processes - Position Paper. In: International Conference on Business Information Systems, vol. 8787, pp. 158–168, Greece, Springer, (2017).</t>
+  </si>
+  <si>
+    <t>M. Petticrew, H. Roberts, “Systematic Reviews in the Social Sciences: A Practical Guide,” Blackwell Publishing, 2005, ISBN 1405121106.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2 </t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4 </t>
+  </si>
+  <si>
+    <t>QA1</t>
+  </si>
+  <si>
+    <t>QA2</t>
+  </si>
+  <si>
+    <t>Quality
+Score</t>
+  </si>
+  <si>
+    <t>Ranking of 
+the publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty 
+citations </t>
+  </si>
+  <si>
+    <t>Jornal/Conference 
+name</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Business Information Processing</t>
+  </si>
+  <si>
+    <t>Expert systems with applications</t>
+  </si>
+  <si>
+    <t>Mis quarterly</t>
+  </si>
+  <si>
+    <t>Cognitive Computing – ICCC 2018</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Computer Science</t>
+  </si>
+  <si>
+    <t>Enterprise and Organizational Modeling and Simulation</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Information Systems and Organisation</t>
+  </si>
+  <si>
+    <t>Decision Support Systems</t>
+  </si>
+  <si>
+    <t>Information and Software Technology</t>
+  </si>
+  <si>
+    <t>Science of Computer Programming</t>
+  </si>
+  <si>
+    <t>Information Systems Frontiers</t>
+  </si>
+  <si>
+    <t>International Conference on Business Process Management</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DATA &amp; KNOWLEDGE ENGINEERING</t>
+  </si>
+  <si>
+    <t>Não tem Q</t>
+  </si>
+  <si>
+    <t>Não achei nem no SRJ nem no CORE</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0950584916302889</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>exclued</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Learning process modeling phases from modeling interactions and eye tracking data</t>
+  </si>
+  <si>
+    <t>The Influence of Cognitive Abilities and Cognitive Load on Business Process Models and Their Creation</t>
+  </si>
+  <si>
+    <t>Não usa eye tracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +796,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="3"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +874,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +1021,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,12 +1091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,9 +1118,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -700,14 +1133,202 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -715,7 +1336,56 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1096,13 +1766,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1127,133 +1790,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="3"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1295,15 +1832,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1346,13 +1874,7 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1421,6 +1943,21 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1523,6 +2060,356 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1641,6 +2528,267 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="double"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="double"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="3"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1679,46 +2827,76 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5117,62 +6295,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD2C39E4-7394-4279-A245-F33A803213F3}" name="Tabela2" displayName="Tabela2" ref="A1:V24" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28" headerRowBorderDxfId="48" tableBorderDxfId="49" totalsRowBorderDxfId="47">
-  <autoFilter ref="A1:V24" xr:uid="{5D5F7A37-A1EC-4E6D-A141-E6053E58F6C4}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{96D68E5B-8C4E-4660-B3E0-6E7BA05DC365}" name="Coluna1" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{CA0693F8-8E85-4033-87C2-529290136FDF}" name="Coluna2" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{3439D1A7-7BD6-4F9D-9D8D-205A7B2A50E3}" name="Ref" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{84EB55D2-E5DB-439D-9F29-53785739670D}" name="Titulo" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{3D97A160-E67C-40F7-851A-F692CE50AC3B}" name="Autor" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{ECDABA38-427A-4F69-BBD3-73ADF2B44D0C}" name="Year" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{27786506-E255-4847-959B-626A32F011BD}" name="GCQ1 " dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{A32AE257-7334-48B4-BE2A-14A44E9FB8E7}" name="GCQ2 " dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{E918FE2C-2E85-4518-88FB-EEC3ECA8D716}" name="GCQ3 " dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{D1281D7D-4B41-4893-B755-499A2DECD2B8}" name="GCQ4 " dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{CCE1394C-7F96-4F84-9F2B-65136C03A709}" name="GCQ5 " dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{B2EBEED1-46D8-4BDD-AE56-58C0942DEA2F}" name="GCQ6 " dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{211E96D6-2C1E-44F0-90C5-E260C136AD0B}" name="EQC1 " dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{6CA9AFFC-4E07-4BF2-8F64-623D8B9DBAED}" name="EQC2 " dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{63184CCC-D4BB-4A6A-A66E-1F599AF43A3A}" name="EQC3 " dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{1F9FDA2D-3DDB-4A60-9413-AC1D127A7792}" name="EQC4 " dataDxfId="35"/>
-    <tableColumn id="21" xr3:uid="{381EEA7C-5FD9-4931-9F1C-21630402EFA1}" name="QC1 score" dataDxfId="34">
-      <calculatedColumnFormula>SUM(G2:L2)/6+(3*(SUM(M2:P2)/4))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69213BA1-5D3A-4635-B6C1-6561952783AF}" name="Tabela22" displayName="Tabela22" ref="A1:W24" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+  <autoFilter ref="A1:W24" xr:uid="{5D5F7A37-A1EC-4E6D-A141-E6053E58F6C4}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{BBA5F4E2-6397-4C55-BD1D-1A6389E5BA8F}" name="Coluna1" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{C84A984A-292E-4FFB-B3E3-CE7F41BAF82D}" name="Coluna2" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{3B659977-78DE-4830-93D6-EBD74A298667}" name="Coluna3" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{C2CA4209-3CAC-4F49-880D-51E19CDCB21B}" name="Ref" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{4EDBD053-F02E-4C0B-A094-5997580E1D5A}" name="Titulo" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{F2A725D4-671E-425D-8AF2-64AF91E507BA}" name="Autor" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{C7853269-0470-4596-9405-B5F3DE22349A}" name="Year" dataDxfId="66"/>
+    <tableColumn id="11" xr3:uid="{7B8F81A5-175B-4D2F-8CF5-64FA0E15747B}" name="GCQ1 " dataDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{9F4C80DB-C912-4244-AC66-4A3D420AA78C}" name="GCQ2 " dataDxfId="64"/>
+    <tableColumn id="13" xr3:uid="{A2AB96F1-24DD-4ACA-BC20-B1BB8D3278AE}" name="GCQ3 " dataDxfId="63"/>
+    <tableColumn id="14" xr3:uid="{28713753-9B08-4A6A-9B7D-C67E2E887E33}" name="GCQ4 " dataDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{DC162D6E-4880-45B1-A3C1-1CF7440CCDF7}" name="GCQ5 " dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{D3DF89E7-8596-49EB-9678-411A14C968B5}" name="GCQ6 " dataDxfId="60"/>
+    <tableColumn id="17" xr3:uid="{781E8EA2-5CAF-422C-911C-6A911594AE82}" name="EQC1 " dataDxfId="59"/>
+    <tableColumn id="18" xr3:uid="{74C2548E-2401-47D1-9451-BF03CCE8A2A9}" name="EQC2 " dataDxfId="58"/>
+    <tableColumn id="19" xr3:uid="{5392C4DE-09FD-4DA4-AB03-9117DD0B5AF6}" name="EQC3 " dataDxfId="57"/>
+    <tableColumn id="20" xr3:uid="{7B19F278-1A97-45CA-9B24-A4612D81B328}" name="EQC4 " dataDxfId="56"/>
+    <tableColumn id="21" xr3:uid="{4D0EBA64-490F-4F97-83CF-A01F053CA51E}" name="QC1 score" dataDxfId="55">
+      <calculatedColumnFormula>SUM(H2:M2)/6+(3*(SUM(N2:Q2)/4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{FFF7B704-28A2-4AFA-B0A5-097FC111D3B4}" name="QC1" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{D9480C43-3688-45FE-B890-1F8A7CF5C487}" name="Qty ref" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{C2E2E8C4-0D32-4651-AD53-25C2798B07B2}" name="QC3" dataDxfId="31"/>
-    <tableColumn id="25" xr3:uid="{894D254E-19A1-4C49-8E2C-AAC63539931C}" name="CQ4" dataDxfId="30"/>
-    <tableColumn id="26" xr3:uid="{975FB315-725E-4B81-BABE-A1D24A5CA5EE}" name="Status" dataDxfId="29"/>
+    <tableColumn id="22" xr3:uid="{F8502EE8-4508-4999-BFBF-65F4D511F400}" name="QC1" dataDxfId="54"/>
+    <tableColumn id="23" xr3:uid="{5F023DAE-8F8C-4A11-89D8-3E4E3139B5CA}" name="Qty ref" dataDxfId="53"/>
+    <tableColumn id="24" xr3:uid="{487A2BB5-5519-415F-95D8-1FB19FE11C31}" name="QC3" dataDxfId="52"/>
+    <tableColumn id="25" xr3:uid="{DB407BA6-A098-4816-94C0-C89F78C374CB}" name="CQ4" dataDxfId="51"/>
+    <tableColumn id="26" xr3:uid="{544850F6-CA5A-404A-AF22-219C62EC9B83}" name="Status" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6406412F-2234-4A78-AEEA-D2A2206D1303}" name="Tabela26" displayName="Tabela26" ref="A1:R24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD2C39E4-7394-4279-A245-F33A803213F3}" name="Tabela2" displayName="Tabela2" ref="A1:X25" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:X25" xr:uid="{5D5F7A37-A1EC-4E6D-A141-E6053E58F6C4}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="1.54"/>
+        <filter val="1.75"/>
+        <filter val="1.83"/>
+        <filter val="2.21"/>
+        <filter val="2.29"/>
+        <filter val="2.38"/>
+        <filter val="2.46"/>
+        <filter val="2.54"/>
+        <filter val="2.75"/>
+        <filter val="2.83"/>
+        <filter val="2.92"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="17">
+      <filters>
+        <filter val="High"/>
+        <filter val="Medium"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{96D68E5B-8C4E-4660-B3E0-6E7BA05DC365}" name="Coluna1" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{CA0693F8-8E85-4033-87C2-529290136FDF}" name="Coluna2" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{5FB048DC-3A65-42A6-9454-FC0AD65854D5}" name="Coluna3" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{3439D1A7-7BD6-4F9D-9D8D-205A7B2A50E3}" name="Ref" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{84EB55D2-E5DB-439D-9F29-53785739670D}" name="Title" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{27786506-E255-4847-959B-626A32F011BD}" name="G1 " dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{E918FE2C-2E85-4518-88FB-EEC3ECA8D716}" name="G2 " dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{D1281D7D-4B41-4893-B755-499A2DECD2B8}" name="G3" dataDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{B2EBEED1-46D8-4BDD-AE56-58C0942DEA2F}" name="G4" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{211E96D6-2C1E-44F0-90C5-E260C136AD0B}" name="S1 " dataDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{6CA9AFFC-4E07-4BF2-8F64-623D8B9DBAED}" name="S2 " dataDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{63184CCC-D4BB-4A6A-A66E-1F599AF43A3A}" name="S3 " dataDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{1F9FDA2D-3DDB-4A60-9413-AC1D127A7792}" name="S4 " dataDxfId="32"/>
+    <tableColumn id="21" xr3:uid="{381EEA7C-5FD9-4931-9F1C-21630402EFA1}" name="Quality_x000a_Score" dataDxfId="31">
+      <calculatedColumnFormula>SUM(F2:I2)/6+(3*(SUM(J2:M2)/4))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{FFF7B704-28A2-4AFA-B0A5-097FC111D3B4}" name="QA1" dataDxfId="1">
+      <calculatedColumnFormula>IF(N2 &gt;= 2.5, "High", IF(N2 &lt; 1.5,"Lower","Medium"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8D92BA8F-D245-4831-9958-16E526CFA333}" name="Jornal/Conference _x000a_name" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{0FBAF864-4332-44D6-908D-D7F89C7A1E88}" name="Ranking of _x000a_the publications"/>
+    <tableColumn id="8" xr3:uid="{EBAEAB89-6C42-4A9D-B86F-D24AD9E8D296}" name="QA2"/>
+    <tableColumn id="23" xr3:uid="{D9480C43-3688-45FE-B890-1F8A7CF5C487}" name="Qty _x000a_citations " dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{C2E2E8C4-0D32-4651-AD53-25C2798B07B2}" name="QC3" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{ECDABA38-427A-4F69-BBD3-73ADF2B44D0C}" name="Year" dataDxfId="27"/>
+    <tableColumn id="25" xr3:uid="{894D254E-19A1-4C49-8E2C-AAC63539931C}" name="CQ4" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{975FB315-725E-4B81-BABE-A1D24A5CA5EE}" name="Status" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{CA6FCD66-5F00-4FD8-8B33-058ED8637B1D}" name="X" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6406412F-2234-4A78-AEEA-D2A2206D1303}" name="Tabela26" displayName="Tabela26" ref="A1:R24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:R24" xr:uid="{70173669-E304-4D63-BA22-F78E385AA23A}"/>
   <tableColumns count="18">
-    <tableColumn id="3" xr3:uid="{785B06B8-118B-4664-BDD7-DD31688D15E0}" name="Ref" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{845C10B1-ECD1-44BD-B1FA-49F010D0681F}" name="Year" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{1BAD39BD-3398-4BC0-B5A0-A37BC8D5CD81}" name="GCQ1 " dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{C5EFC257-7A6A-4445-8811-BB16542A7E15}" name="GCQ2 " dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{3476A7DD-2489-4EAB-B0D3-12A4B8050122}" name="GCQ3 " dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{0F9D0675-B0B3-4AB2-86B1-18E9922F25B4}" name="GCQ4 " dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{CBB4AE2A-B1E4-46C9-B3C9-6CE0AF4F3E30}" name="GCQ5 " dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{1A38A433-FC65-477A-8974-6A90E00F562F}" name="GCQ6 " dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{DD4A5546-69E0-469D-84D6-99F9736E0549}" name="EQC1 " dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{034D8AAA-292A-4E44-A3BE-FFDCE63BB71C}" name="EQC2 " dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{320B1C24-3B38-4E26-88BB-CFAC2ADAAC93}" name="EQC3 " dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{284CC5F1-DF6A-49F9-8465-7497D3FF5436}" name="EQC4 " dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{2AEAB5A0-7F96-4609-A445-7A55AC9BEB13}" name="QC1 score" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{785B06B8-118B-4664-BDD7-DD31688D15E0}" name="Ref" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{845C10B1-ECD1-44BD-B1FA-49F010D0681F}" name="Year" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{1BAD39BD-3398-4BC0-B5A0-A37BC8D5CD81}" name="GCQ1 " dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{C5EFC257-7A6A-4445-8811-BB16542A7E15}" name="GCQ2 " dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{3476A7DD-2489-4EAB-B0D3-12A4B8050122}" name="GCQ3 " dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{0F9D0675-B0B3-4AB2-86B1-18E9922F25B4}" name="GCQ4 " dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{CBB4AE2A-B1E4-46C9-B3C9-6CE0AF4F3E30}" name="GCQ5 " dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{1A38A433-FC65-477A-8974-6A90E00F562F}" name="GCQ6 " dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{DD4A5546-69E0-469D-84D6-99F9736E0549}" name="EQC1 " dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{034D8AAA-292A-4E44-A3BE-FFDCE63BB71C}" name="EQC2 " dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{320B1C24-3B38-4E26-88BB-CFAC2ADAAC93}" name="EQC3 " dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{284CC5F1-DF6A-49F9-8465-7497D3FF5436}" name="EQC4 " dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{2AEAB5A0-7F96-4609-A445-7A55AC9BEB13}" name="QC1 score" dataDxfId="7">
       <calculatedColumnFormula>SUM(C2:H2)/6+(3*(SUM(I2:L2)/4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2918724B-5A7D-4D5C-9C37-8C64C849A159}" name="QC1" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{B8019790-DA6C-47BA-BC89-308ED9086166}" name="Qty ref" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{F8311EB8-D21D-477D-8462-8608F3B60A6D}" name="QC3" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{8A009B8C-C0AD-42CB-A95F-04E8144E8EE2}" name="CQ4" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{8CC97598-9FF4-44E6-9C1E-B6361C0FCF6E}" name="Status" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{2918724B-5A7D-4D5C-9C37-8C64C849A159}" name="QC1" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{B8019790-DA6C-47BA-BC89-308ED9086166}" name="Qty ref" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{F8311EB8-D21D-477D-8462-8608F3B60A6D}" name="QC3" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{8A009B8C-C0AD-42CB-A95F-04E8144E8EE2}" name="CQ4" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{8CC97598-9FF4-44E6-9C1E-B6361C0FCF6E}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5629,10 +6867,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD047306-0E24-42E2-BD5E-D2612C1484B5}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5667,21 +6905,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>14569</v>
+        <v>15414</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -5693,30 +6931,30 @@
         <v>13</v>
       </c>
       <c r="I2" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>15414</v>
+        <v>15367</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>2019</v>
@@ -5731,29 +6969,26 @@
         <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>15248</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15393</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2">
         <v>2019</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -5766,30 +7001,28 @@
         <v>13</v>
       </c>
       <c r="I4" s="2">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:12" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>15393</v>
+        <v>15311</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -5801,27 +7034,27 @@
         <v>13</v>
       </c>
       <c r="I5" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>15311</v>
+        <v>15254</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -5833,27 +7066,27 @@
         <v>13</v>
       </c>
       <c r="I6" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>15254</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>14784</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -5865,26 +7098,26 @@
         <v>13</v>
       </c>
       <c r="I7" s="2">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>15367</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2">
+        <v>15293</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="8">
         <v>2019</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -5897,13 +7130,16 @@
         <v>13</v>
       </c>
       <c r="I8" s="2">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -5935,7 +7171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -5969,18 +7205,18 @@
     </row>
     <row r="11" spans="1:12" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>15293</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="8">
+        <v>15252</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
         <v>2019</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -5993,30 +7229,27 @@
         <v>13</v>
       </c>
       <c r="I11" s="2">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15249</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>14784</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>
@@ -6028,24 +7261,24 @@
         <v>13</v>
       </c>
       <c r="I12" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>15249</v>
+        <v>15253</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>2017</v>
@@ -6060,27 +7293,27 @@
         <v>13</v>
       </c>
       <c r="I13" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>15253</v>
+        <v>15250</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -6092,27 +7325,27 @@
         <v>13</v>
       </c>
       <c r="I14" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>15250</v>
+        <v>14778</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -6124,27 +7357,27 @@
         <v>13</v>
       </c>
       <c r="I15" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>14778</v>
+        <v>15318</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
@@ -6156,27 +7389,27 @@
         <v>13</v>
       </c>
       <c r="I16" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>15318</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>14569</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
@@ -6188,45 +7421,24 @@
         <v>13</v>
       </c>
       <c r="I17" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2">
-        <v>15252</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>203</v>
       </c>
       <c r="E18" s="2">
         <v>2019</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -6258,7 +7470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -6290,7 +7502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -6322,7 +7534,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -6354,7 +7566,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -6386,7 +7598,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -6418,7 +7630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -6450,53 +7662,35 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2">
-        <v>15292</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>60</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>204</v>
       </c>
       <c r="E26" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5">
+        <v>15248</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="5">
         <v>2019</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2">
-        <v>15296</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2018</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>11</v>
@@ -6508,27 +7702,30 @@
         <v>13</v>
       </c>
       <c r="I27" s="2">
-        <v>45</v>
-      </c>
-      <c r="J27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>15245</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>15292</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>11</v>
@@ -6540,21 +7737,85 @@
         <v>13</v>
       </c>
       <c r="I28" s="2">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2">
+        <v>15296</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>15245</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K28" xr:uid="{6BB2C00C-5DB1-476C-9811-82120F77000F}">
+  <autoFilter ref="A1:K30" xr:uid="{6BB2C00C-5DB1-476C-9811-82120F77000F}">
     <filterColumn colId="9">
       <filters>
-        <filter val="ACEITO"/>
+        <filter val="REJEITADO"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
-      <sortCondition ref="E1:E28"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+      <sortCondition ref="C1:C30"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -6566,245 +7827,317 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185CD82-0275-469D-AA10-D7D576832F19}">
-  <dimension ref="A1:V24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B2088A-01C9-4848-9650-E39A04E13DF4}">
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="13" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="13" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24" style="41" customWidth="1"/>
-    <col min="5" max="5" width="21" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="14" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="16" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="46.140625" style="13"/>
+    <col min="3" max="3" width="6" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="24" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="14" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="46.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="11">
-        <v>15367</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="12">
+        <v>15252</v>
+      </c>
+      <c r="C2" s="12">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12">
         <v>2019</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="23"/>
-    </row>
-    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="H2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="64">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="64"/>
+      <c r="M2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="15">
+        <v>1</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>1</v>
+      </c>
+      <c r="R2" s="15">
+        <f>SUM(H2:M2)/6+(3*(SUM(N2:Q2)/4))</f>
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="29">
+        <v>4</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="23"/>
+    </row>
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="11">
         <v>14784</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="12">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>2019</v>
       </c>
-      <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="L3" s="64"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="15">
-        <f>SUM(G3:L3)/6+(3*(SUM(M3:P3)/4))</f>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15">
+        <f t="shared" ref="R3:R23" si="0">SUM(H3:M3)/6+(3*(SUM(N3:Q3)/4))</f>
         <v>0</v>
       </c>
-      <c r="R3" s="23"/>
       <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-    </row>
-    <row r="4" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="T3" s="23">
+        <v>1</v>
+      </c>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="23"/>
+    </row>
+    <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>15252</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12">
+        <v>15256</v>
+      </c>
+      <c r="C4" s="12">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12">
+        <v>29</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="12">
         <v>2019</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="64">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="64">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1</v>
+      </c>
+      <c r="P4" s="15">
+        <v>1</v>
+      </c>
       <c r="Q4" s="15">
-        <f>SUM(G4:L4)/6+(3*(SUM(M4:P4)/4))</f>
         <v>0</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-    </row>
-    <row r="5" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="R4" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="54">
+        <v>1</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="11">
-        <v>15393</v>
+        <v>15292</v>
       </c>
       <c r="C5" s="12">
-        <v>31</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="12">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12">
         <v>2019</v>
       </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
       <c r="H5" s="15">
         <v>1</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="64">
         <v>1</v>
       </c>
       <c r="J5" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="64">
         <v>1</v>
       </c>
       <c r="M5" s="15">
@@ -6817,29 +8150,32 @@
         <v>1</v>
       </c>
       <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
         <v>0</v>
       </c>
-      <c r="Q5" s="15">
-        <f>SUM(G5:L5)/6+(3*(SUM(M5:P5)/4))</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="15">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="S5" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="S5" s="31">
-        <v>2</v>
-      </c>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="31">
+        <v>1</v>
+      </c>
+      <c r="U5" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="V5" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="W5" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6847,37 +8183,37 @@
         <v>15247</v>
       </c>
       <c r="C6" s="12">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12">
         <v>30</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="E6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <v>2019</v>
       </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
       <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="64">
         <v>1</v>
       </c>
       <c r="J6" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K6" s="15">
         <v>0.5</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="64">
         <v>0.5</v>
       </c>
       <c r="M6" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="15">
         <v>1</v>
@@ -6886,64 +8222,67 @@
         <v>1</v>
       </c>
       <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15">
         <v>0</v>
       </c>
-      <c r="Q6" s="15">
-        <f>SUM(G6:L6)/6+(3*(SUM(M6:P6)/4))</f>
+      <c r="R6" s="15">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="S6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="S6" s="44">
+      <c r="T6" s="40">
         <v>5</v>
       </c>
-      <c r="T6" s="44" t="s">
+      <c r="U6" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="V6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="W6" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11">
-        <v>15294</v>
+        <v>15393</v>
       </c>
       <c r="C7" s="12">
-        <v>46</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="12">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12">
+        <v>31</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="12">
         <v>2019</v>
       </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
       <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="64">
         <v>1</v>
       </c>
       <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
         <v>0.5</v>
       </c>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0.5</v>
+      <c r="L7" s="64">
+        <v>1</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
@@ -6955,55 +8294,58 @@
         <v>1</v>
       </c>
       <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15">
         <v>0</v>
       </c>
-      <c r="Q7" s="15">
-        <f>SUM(G7:L7)/6+(3*(SUM(M7:P7)/4))</f>
-        <v>3.0833333333333335</v>
-      </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="S7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="S7" s="31">
-        <v>4</v>
-      </c>
-      <c r="T7" s="31" t="s">
+      <c r="T7" s="29">
+        <v>2</v>
+      </c>
+      <c r="U7" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="V7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="V7" s="43" t="s">
+      <c r="W7" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
       <c r="B8" s="11">
-        <v>15256</v>
+        <v>15245</v>
       </c>
       <c r="C8" s="12">
-        <v>29</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2019</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="12">
+        <v>32</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2018</v>
       </c>
       <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="64">
+        <v>0.5</v>
       </c>
       <c r="J8" s="15">
         <v>1</v>
@@ -7011,704 +8353,844 @@
       <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="64">
         <v>0.5</v>
       </c>
       <c r="M8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="15">
         <v>1</v>
       </c>
       <c r="P8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="Q8" s="15">
-        <f>SUM(G8:L8)/6+(3*(SUM(M8:P8)/4))</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7083333333333335</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="S8" s="32">
-        <v>1</v>
-      </c>
-      <c r="T8" s="30" t="s">
+      <c r="W8" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11">
+        <v>15255</v>
+      </c>
+      <c r="C9" s="12">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12">
+        <v>33</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2018</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="64">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="S9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="U8" s="30" t="s">
+      <c r="T9" s="31">
+        <v>1</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="30" t="s">
+      <c r="W9" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="10" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
-        <v>15292</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2019</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>1</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15">
-        <v>1</v>
-      </c>
-      <c r="N9" s="15">
-        <v>1</v>
-      </c>
-      <c r="O9" s="15">
-        <v>1</v>
-      </c>
-      <c r="P9" s="15">
+      <c r="B10" s="11">
+        <v>15296</v>
+      </c>
+      <c r="C10" s="41">
+        <v>38</v>
+      </c>
+      <c r="D10" s="41">
+        <v>34</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="15">
         <v>0</v>
       </c>
-      <c r="Q9" s="15">
-        <f>SUM(G9:L9)/6+(3*(SUM(M9:P9)/4))</f>
-        <v>3.25</v>
-      </c>
-      <c r="R9" s="31" t="s">
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1</v>
+      </c>
+      <c r="P10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S10" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="33">
-        <v>1</v>
-      </c>
-      <c r="T9" s="31" t="s">
+      <c r="T10" s="14">
+        <v>5</v>
+      </c>
+      <c r="U10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="V10" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="V9" s="43" t="s">
+      <c r="W10" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="11" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="11">
-        <v>15311</v>
-      </c>
-      <c r="C10" s="12">
-        <v>47</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="B11" s="11">
+        <v>15325</v>
+      </c>
+      <c r="C11" s="12">
         <v>39</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="D11" s="12">
+        <v>35</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2017</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="23"/>
+    </row>
+    <row r="12" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11">
+        <v>15281</v>
+      </c>
+      <c r="C12" s="12">
         <v>40</v>
       </c>
-      <c r="F10" s="12">
-        <v>2018</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <v>1</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15">
-        <f>SUM(G10:L10)/6+(3*(SUM(M10:P10)/4))</f>
-        <v>3.25</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" s="30">
-        <v>3</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="V10" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="11">
-        <v>15255</v>
-      </c>
-      <c r="C11" s="12">
-        <v>33</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="12">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0</v>
-      </c>
-      <c r="O11" s="15">
-        <v>1</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15">
-        <f>SUM(G11:L11)/6+(3*(SUM(M11:P11)/4))</f>
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="33">
-        <v>1</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="V11" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11">
-        <v>15296</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="12">
-        <v>2018</v>
-      </c>
-      <c r="G12" s="15"/>
+      <c r="D12" s="12">
+        <v>36</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2017</v>
+      </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="15">
-        <f>SUM(G12:L12)/6+(3*(SUM(M12:P12)/4))</f>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-    </row>
-    <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="11">
-        <v>15245</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2018</v>
-      </c>
-      <c r="G13" s="15"/>
+        <v>14778</v>
+      </c>
+      <c r="C13" s="12">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12">
+        <v>37</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2017</v>
+      </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="15">
-        <f>SUM(G13:L13)/6+(3*(SUM(M13:P13)/4))</f>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="23"/>
-    </row>
-    <row r="14" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="U13" s="44"/>
+      <c r="W13" s="23"/>
+    </row>
+    <row r="14" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>3</v>
       </c>
       <c r="B14" s="11">
-        <v>15254</v>
+        <v>15253</v>
       </c>
       <c r="C14" s="12">
-        <v>40</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="12">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12">
+        <v>38</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12">
         <v>2017</v>
       </c>
-      <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="15">
-        <f>SUM(G14:L14)/6+(3*(SUM(M14:P14)/4))</f>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-    </row>
-    <row r="15" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>3</v>
       </c>
       <c r="B15" s="11">
         <v>15249</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="12">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12">
+        <v>39</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="12">
         <v>2017</v>
       </c>
-      <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="15">
-        <f>SUM(G15:L15)/6+(3*(SUM(M15:P15)/4))</f>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="23"/>
-    </row>
-    <row r="16" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="W15" s="23"/>
+    </row>
+    <row r="16" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>3</v>
       </c>
       <c r="B16" s="11">
-        <v>15253</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="12">
+        <v>15254</v>
+      </c>
+      <c r="C16" s="41">
+        <v>44</v>
+      </c>
+      <c r="D16" s="41">
+        <v>40</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="12">
         <v>2017</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="64">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="L16" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="15">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1</v>
+      </c>
+      <c r="P16" s="15">
+        <v>1</v>
+      </c>
       <c r="Q16" s="15">
-        <f>SUM(G16:L16)/6+(3*(SUM(M16:P16)/4))</f>
         <v>0</v>
       </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-    </row>
-    <row r="17" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="R16" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" s="23">
+        <v>11</v>
+      </c>
+      <c r="U16" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>2</v>
       </c>
       <c r="B17" s="11">
-        <v>14778</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="35" t="s">
+        <v>14793</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45</v>
+      </c>
+      <c r="D17" s="12">
+        <v>41</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="12">
+        <v>2016</v>
+      </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="15">
-        <f>SUM(G17:L17)/6+(3*(SUM(M17:P17)/4))</f>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V17" s="23"/>
-    </row>
-    <row r="18" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>4</v>
       </c>
       <c r="B18" s="11">
-        <v>15281</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2017</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>15284</v>
+      </c>
+      <c r="C18" s="12">
+        <v>46</v>
+      </c>
+      <c r="D18" s="12">
+        <v>42</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2015</v>
+      </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="15">
-        <f>SUM(G18:L18)/6+(3*(SUM(M18:P18)/4))</f>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-    </row>
-    <row r="19" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="23"/>
+    </row>
+    <row r="19" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="11">
-        <v>15325</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="12">
-        <v>2017</v>
-      </c>
-      <c r="G19" s="15"/>
+        <v>15250</v>
+      </c>
+      <c r="C19" s="12">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12">
+        <v>43</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2013</v>
+      </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="15">
-        <f>SUM(G19:L19)/6+(3*(SUM(M19:P19)/4))</f>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="23"/>
-    </row>
-    <row r="20" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="W19" s="23"/>
+    </row>
+    <row r="20" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" s="11">
-        <v>14793</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2016</v>
-      </c>
-      <c r="G20" s="15"/>
+        <v>15318</v>
+      </c>
+      <c r="C20" s="12">
+        <v>48</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2013</v>
+      </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="15">
-        <f>SUM(G20:L20)/6+(3*(SUM(M20:P20)/4))</f>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="23"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
-    </row>
-    <row r="21" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="W20" s="23"/>
+    </row>
+    <row r="21" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="11">
-        <v>15284</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="12">
-        <v>2015</v>
-      </c>
-      <c r="G21" s="15"/>
+        <v>14768</v>
+      </c>
+      <c r="C21" s="12">
+        <v>49</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="12">
+        <v>2014</v>
+      </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="15">
-        <f>SUM(G21:L21)/6+(3*(SUM(M21:P21)/4))</f>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="23"/>
-    </row>
-    <row r="22" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="23"/>
+    </row>
+    <row r="22" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" s="11">
-        <v>14768</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="12">
-        <v>2014</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+        <v>15294</v>
+      </c>
+      <c r="C22" s="12">
+        <v>50</v>
+      </c>
+      <c r="D22" s="12">
+        <v>46</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2019</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="64">
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="64">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="15">
+        <v>1</v>
+      </c>
+      <c r="O22" s="15">
+        <v>1</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1</v>
+      </c>
       <c r="Q22" s="15">
-        <f>SUM(G22:L22)/6+(3*(SUM(M22:P22)/4))</f>
         <v>0</v>
       </c>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-    </row>
-    <row r="23" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T22" s="39">
+        <v>4</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V22" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="W22" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="46" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
+        <v>5</v>
+      </c>
+      <c r="B23" s="11">
+        <v>15311</v>
+      </c>
+      <c r="C23" s="12">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12">
+        <v>47</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2018</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="64">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <v>1</v>
+      </c>
+      <c r="N23" s="15">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
+        <v>1</v>
+      </c>
+      <c r="P23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="T23" s="28">
         <v>3</v>
       </c>
-      <c r="B23" s="11">
-        <v>15250</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="12">
-        <v>2013</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15">
-        <f>SUM(G23:L23)/6+(3*(SUM(M23:P23)/4))</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="23"/>
-    </row>
-    <row r="24" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="U23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="W23" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
         <v>5</v>
       </c>
-      <c r="B24" s="26">
-        <v>15318</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="27">
-        <v>2013</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28">
-        <f>SUM(G24:L24)/6+(3*(SUM(M24:P24)/4))</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
+      <c r="B24" s="48">
+        <v>15367</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="49">
+        <v>2019</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="55"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7720,11 +9202,2444 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185CD82-0275-469D-AA10-D7D576832F19}">
+  <dimension ref="A1:CS25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="6" style="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="14" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="72.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="46.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
+        <v>15252</v>
+      </c>
+      <c r="C2" s="12">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="75">
+        <v>1</v>
+      </c>
+      <c r="H2" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="75">
+        <v>1</v>
+      </c>
+      <c r="K2" s="75">
+        <v>0</v>
+      </c>
+      <c r="L2" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="75">
+        <v>1</v>
+      </c>
+      <c r="N2" s="75">
+        <f>SUM(F2:I2)/6+(3*(SUM(J2:M2)/4))</f>
+        <v>2.2916666666666665</v>
+      </c>
+      <c r="O2" s="76" t="str">
+        <f t="shared" ref="O2:O24" si="0">IF(N2 &gt;= 2.5, "High", IF(N2 &lt; 1.5,"Lower","Medium"))</f>
+        <v>Medium</v>
+      </c>
+      <c r="P2" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="76">
+        <v>5</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="77">
+        <v>2019</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X2" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>14784</v>
+      </c>
+      <c r="C3" s="12">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" ref="N3:N24" si="1">SUM(F3:I3)/6+(3*(SUM(J3:M3)/4))</f>
+        <v>2.5416666666666665</v>
+      </c>
+      <c r="O3" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P3" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="23">
+        <v>1</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="12">
+        <v>2019</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>15256</v>
+      </c>
+      <c r="C4" s="12">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12">
+        <v>29</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="O4" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="S4" s="54">
+        <v>1</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="12">
+        <v>2019</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>15292</v>
+      </c>
+      <c r="C5" s="12">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="O5" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P5" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="31">
+        <v>1</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="12">
+        <v>2019</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="83"/>
+    </row>
+    <row r="6" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>15247</v>
+      </c>
+      <c r="C6" s="12">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12">
+        <v>30</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="O6" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P6" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="S6" s="40">
+        <v>6</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="12">
+        <v>2018</v>
+      </c>
+      <c r="V6" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>15393</v>
+      </c>
+      <c r="C7" s="12">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12">
+        <v>31</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="O7" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="29">
+        <v>2</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="29">
+        <v>2019</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <v>15245</v>
+      </c>
+      <c r="C8" s="12">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12">
+        <v>32</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.5416666666666667</v>
+      </c>
+      <c r="O8" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q8" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="R8" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="S8" s="86">
+        <v>3</v>
+      </c>
+      <c r="T8" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="12">
+        <v>2018</v>
+      </c>
+      <c r="V8" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11">
+        <v>15255</v>
+      </c>
+      <c r="C9" s="12">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12">
+        <v>33</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="O9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="31">
+        <v>1</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="U9" s="12">
+        <v>2018</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>15296</v>
+      </c>
+      <c r="C10" s="41">
+        <v>38</v>
+      </c>
+      <c r="D10" s="41">
+        <v>34</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="O10" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="R10" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="14">
+        <v>5</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="V10" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X10" s="16"/>
+    </row>
+    <row r="11" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11">
+        <v>15325</v>
+      </c>
+      <c r="C11" s="12">
+        <v>39</v>
+      </c>
+      <c r="D11" s="12">
+        <v>35</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="P11" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="16">
+        <v>7</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" s="12">
+        <v>2017</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11">
+        <v>15281</v>
+      </c>
+      <c r="C12" s="12">
+        <v>40</v>
+      </c>
+      <c r="D12" s="12">
+        <v>36</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="O12" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="P12" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q12" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23">
+        <v>2</v>
+      </c>
+      <c r="T12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="12">
+        <v>2018</v>
+      </c>
+      <c r="V12" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11">
+        <v>14778</v>
+      </c>
+      <c r="C13" s="12">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12">
+        <v>37</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="O13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P13" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="16">
+        <v>27</v>
+      </c>
+      <c r="T13" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" s="12">
+        <v>2017</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y13" s="84"/>
+    </row>
+    <row r="14" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11">
+        <v>15253</v>
+      </c>
+      <c r="C14" s="12">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12">
+        <v>38</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="1"/>
+        <v>1.375</v>
+      </c>
+      <c r="O14" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="P14" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="R14" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="S14" s="23">
+        <v>8</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14" s="12">
+        <v>2016</v>
+      </c>
+      <c r="V14" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11">
+        <v>15249</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12">
+        <v>39</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="1"/>
+        <v>2.2083333333333335</v>
+      </c>
+      <c r="O15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="P15" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S15" s="16">
+        <v>14</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="U15" s="12">
+        <v>2017</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15254</v>
+      </c>
+      <c r="C16" s="41">
+        <v>44</v>
+      </c>
+      <c r="D16" s="41">
+        <v>40</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="O16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P16" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q16" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="R16" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="S16" s="23">
+        <v>11</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="U16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="V16" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="1:97" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11">
+        <v>14793</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45</v>
+      </c>
+      <c r="D17" s="12">
+        <v>41</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="1"/>
+        <v>2.375</v>
+      </c>
+      <c r="O17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" s="14">
+        <v>19</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" s="12">
+        <v>2016</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="1:97" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11">
+        <v>15284</v>
+      </c>
+      <c r="C18" s="12">
+        <v>46</v>
+      </c>
+      <c r="D18" s="12">
+        <v>42</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q18" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="R18" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="S18" s="87">
+        <v>7</v>
+      </c>
+      <c r="T18" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" s="12">
+        <v>2015</v>
+      </c>
+      <c r="V18" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X18" s="16"/>
+    </row>
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11">
+        <v>15250</v>
+      </c>
+      <c r="C19" s="12">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12">
+        <v>43</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="O19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="P19" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="16">
+        <v>28</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="U19" s="12">
+        <v>2013</v>
+      </c>
+      <c r="V19" s="16"/>
+      <c r="W19" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" s="16"/>
+    </row>
+    <row r="20" spans="1:97" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>5</v>
+      </c>
+      <c r="B20" s="11">
+        <v>15318</v>
+      </c>
+      <c r="C20" s="12">
+        <v>48</v>
+      </c>
+      <c r="D20" s="12">
+        <v>44</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="O20" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R20" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="S20" s="23">
+        <v>36</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="U20" s="12">
+        <v>2013</v>
+      </c>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" spans="1:97" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11">
+        <v>14768</v>
+      </c>
+      <c r="C21" s="12">
+        <v>49</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="O21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>Medium</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="14">
+        <v>13</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U21" s="12">
+        <v>2014</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:97" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="88">
+        <v>6</v>
+      </c>
+      <c r="B22" s="89">
+        <v>15294</v>
+      </c>
+      <c r="C22" s="77">
+        <v>50</v>
+      </c>
+      <c r="D22" s="77">
+        <v>46</v>
+      </c>
+      <c r="E22" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="75">
+        <v>1</v>
+      </c>
+      <c r="G22" s="75">
+        <v>1</v>
+      </c>
+      <c r="H22" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="75">
+        <v>1</v>
+      </c>
+      <c r="K22" s="75">
+        <v>1</v>
+      </c>
+      <c r="L22" s="75">
+        <v>1</v>
+      </c>
+      <c r="M22" s="75">
+        <v>0</v>
+      </c>
+      <c r="N22" s="75">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="O22" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P22" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q22" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="R22" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="S22" s="91">
+        <v>4</v>
+      </c>
+      <c r="T22" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="U22" s="77">
+        <v>2019</v>
+      </c>
+      <c r="V22" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" s="16"/>
+    </row>
+    <row r="23" spans="1:97" s="46" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>5</v>
+      </c>
+      <c r="B23" s="11">
+        <v>15311</v>
+      </c>
+      <c r="C23" s="12">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12">
+        <v>47</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="O23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P23" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S23" s="39">
+        <v>3</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="U23" s="12">
+        <v>2018</v>
+      </c>
+      <c r="V23" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="73"/>
+      <c r="BA23" s="73"/>
+      <c r="BB23" s="73"/>
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73"/>
+      <c r="BE23" s="73"/>
+      <c r="BF23" s="73"/>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="73"/>
+      <c r="BJ23" s="73"/>
+      <c r="BK23" s="73"/>
+      <c r="BL23" s="73"/>
+      <c r="BM23" s="73"/>
+      <c r="BN23" s="73"/>
+      <c r="BO23" s="73"/>
+      <c r="BP23" s="73"/>
+      <c r="BQ23" s="73"/>
+      <c r="BR23" s="73"/>
+      <c r="BS23" s="73"/>
+      <c r="BT23" s="73"/>
+      <c r="BU23" s="73"/>
+      <c r="BV23" s="73"/>
+      <c r="BW23" s="73"/>
+      <c r="BX23" s="73"/>
+      <c r="BY23" s="73"/>
+      <c r="BZ23" s="73"/>
+      <c r="CA23" s="73"/>
+      <c r="CB23" s="73"/>
+      <c r="CC23" s="73"/>
+      <c r="CD23" s="73"/>
+      <c r="CE23" s="73"/>
+      <c r="CF23" s="73"/>
+      <c r="CG23" s="73"/>
+      <c r="CH23" s="73"/>
+      <c r="CI23" s="73"/>
+      <c r="CJ23" s="73"/>
+      <c r="CK23" s="73"/>
+      <c r="CL23" s="73"/>
+      <c r="CM23" s="73"/>
+      <c r="CN23" s="73"/>
+      <c r="CO23" s="73"/>
+      <c r="CP23" s="73"/>
+      <c r="CQ23" s="73"/>
+      <c r="CR23" s="73"/>
+      <c r="CS23" s="73"/>
+    </row>
+    <row r="24" spans="1:97" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="100">
+        <v>5</v>
+      </c>
+      <c r="B24" s="101">
+        <v>15367</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="103">
+        <v>1</v>
+      </c>
+      <c r="G24" s="103">
+        <v>1</v>
+      </c>
+      <c r="H24" s="103">
+        <v>1</v>
+      </c>
+      <c r="I24" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="103">
+        <v>1</v>
+      </c>
+      <c r="K24" s="103">
+        <v>1</v>
+      </c>
+      <c r="L24" s="103">
+        <v>1</v>
+      </c>
+      <c r="M24" s="103">
+        <v>0</v>
+      </c>
+      <c r="N24" s="104">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="O24" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="P24" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q24" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="R24" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" s="91">
+        <v>9</v>
+      </c>
+      <c r="T24" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="U24" s="107">
+        <v>2019</v>
+      </c>
+      <c r="V24" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" s="95"/>
+    </row>
+    <row r="25" spans="1:97" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="96"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="26">
+        <v>1</v>
+      </c>
+      <c r="J25" s="26">
+        <v>1</v>
+      </c>
+      <c r="K25" s="26">
+        <v>1</v>
+      </c>
+      <c r="L25" s="26">
+        <v>1</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <f>SUM(F25:I25)/6+(3*(SUM(J25:M25)/4))</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="O25" s="98" t="str">
+        <f>IF(N25 &gt;= 2.5, "High", IF(N25 &lt; 1.5,"Lower","Medium"))</f>
+        <v>High</v>
+      </c>
+      <c r="P25" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25" s="95">
+        <v>4</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="U25" s="99">
+        <v>2019</v>
+      </c>
+      <c r="V25" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" s="95"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Z14" r:id="rId1" xr:uid="{F5C0E0A7-99F1-42A8-8B21-38CA0EEDB1EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DFF044-9329-4A56-B71C-E707B8AB1399}">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="198.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61">
+        <v>22</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65">
+        <v>28</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>42</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>43</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62">
+        <v>47</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>26</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>27</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5720F1-F85D-45C6-8939-AE6E5FF8EB6E}">
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7823,7 +11738,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15">
-        <f>SUM(C3:H3)/6+(3*(SUM(I3:L3)/4))</f>
+        <f t="shared" ref="M3:M24" si="0">SUM(C3:H3)/6+(3*(SUM(I3:L3)/4))</f>
         <v>0</v>
       </c>
       <c r="N3" s="23"/>
@@ -7848,7 +11763,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15">
-        <f>SUM(C4:H4)/6+(3*(SUM(I4:L4)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="23"/>
@@ -7895,22 +11810,22 @@
         <v>0</v>
       </c>
       <c r="M5" s="15">
-        <f>SUM(C5:H5)/6+(3*(SUM(I5:L5)/4))</f>
+        <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="29">
         <v>2</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7952,22 +11867,22 @@
         <v>0</v>
       </c>
       <c r="M6" s="15">
-        <f>SUM(C6:H6)/6+(3*(SUM(I6:L6)/4))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="40">
         <v>5</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R6" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8009,22 +11924,22 @@
         <v>0</v>
       </c>
       <c r="M7" s="15">
-        <f>SUM(C7:H7)/6+(3*(SUM(I7:L7)/4))</f>
+        <f t="shared" si="0"/>
         <v>3.0833333333333335</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="29">
         <v>4</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="R7" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8066,22 +11981,22 @@
         <v>0</v>
       </c>
       <c r="M8" s="15">
-        <f>SUM(C8:H8)/6+(3*(SUM(I8:L8)/4))</f>
+        <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="32">
-        <v>1</v>
-      </c>
-      <c r="P8" s="30" t="s">
+      <c r="O8" s="30">
+        <v>1</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8121,22 +12036,22 @@
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f>SUM(C9:H9)/6+(3*(SUM(I9:L9)/4))</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="O9" s="33">
-        <v>1</v>
-      </c>
-      <c r="P9" s="31" t="s">
+      <c r="O9" s="31">
+        <v>1</v>
+      </c>
+      <c r="P9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="43" t="s">
+      <c r="R9" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8178,22 +12093,22 @@
         <v>0</v>
       </c>
       <c r="M10" s="15">
-        <f>SUM(C10:H10)/6+(3*(SUM(I10:L10)/4))</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="28">
         <v>3</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="30" t="s">
+      <c r="R10" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8235,22 +12150,22 @@
         <v>0</v>
       </c>
       <c r="M11" s="15">
-        <f>SUM(C11:H11)/6+(3*(SUM(I11:L11)/4))</f>
+        <f t="shared" si="0"/>
         <v>1.9166666666666667</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="33">
-        <v>1</v>
-      </c>
-      <c r="P11" s="31" t="s">
+      <c r="O11" s="31">
+        <v>1</v>
+      </c>
+      <c r="P11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R11" s="43" t="s">
+      <c r="R11" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8270,7 +12185,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15">
-        <f>SUM(C12:H12)/6+(3*(SUM(I12:L12)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="23"/>
@@ -8295,7 +12210,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15">
-        <f>SUM(C13:H13)/6+(3*(SUM(I13:L13)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="16"/>
@@ -8322,7 +12237,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15">
-        <f>SUM(C14:H14)/6+(3*(SUM(I14:L14)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="23"/>
@@ -8347,7 +12262,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15">
-        <f>SUM(C15:H15)/6+(3*(SUM(I15:L15)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="16"/>
@@ -8372,7 +12287,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15">
-        <f>SUM(C16:H16)/6+(3*(SUM(I16:L16)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="23"/>
@@ -8397,7 +12312,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15">
-        <f>SUM(C17:H17)/6+(3*(SUM(I17:L17)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="16"/>
@@ -8422,7 +12337,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15">
-        <f>SUM(C18:H18)/6+(3*(SUM(I18:L18)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="23"/>
@@ -8447,7 +12362,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15">
-        <f>SUM(C19:H19)/6+(3*(SUM(I19:L19)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="16"/>
@@ -8472,7 +12387,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15">
-        <f>SUM(C20:H20)/6+(3*(SUM(I20:L20)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="23"/>
@@ -8497,7 +12412,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15">
-        <f>SUM(C21:H21)/6+(3*(SUM(I21:L21)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="16"/>
@@ -8522,7 +12437,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15">
-        <f>SUM(C22:H22)/6+(3*(SUM(I22:L22)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="23"/>
@@ -8547,7 +12462,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15">
-        <f>SUM(C23:H23)/6+(3*(SUM(I23:L23)/4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="16"/>
@@ -8557,29 +12472,29 @@
       <c r="R23" s="23"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25">
         <v>2013</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28">
-        <f>SUM(C24:H24)/6+(3*(SUM(I24:L24)/4))</f>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8587,4 +12502,454 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7071A6C-39B6-472B-99F5-6F22A4BB6BDD}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="76">
+        <v>5</v>
+      </c>
+      <c r="B2" s="77">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>2</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="87">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>28</v>
+      </c>
+      <c r="B19" s="12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="91">
+        <v>4</v>
+      </c>
+      <c r="B22" s="77">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="71">
+        <v>9</v>
+      </c>
+      <c r="B24" s="72">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{7943AC35-5597-4A7D-8B3E-46A086211509}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CC73BC-F0B7-42AF-83BA-FD92CAEA5838}">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="384" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="117" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="288" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="324" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="192" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="198" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="252" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="324" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="288" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="276" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="216" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="216" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="252" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="171" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="264" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="252" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="348" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="228" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="228" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="288" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="324" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="204" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="198" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="336" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="204" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="216" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A44">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>